--- a/University spaces data.xlsx
+++ b/University spaces data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mythriambatipudi/Documents/ES 96/RiskAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B46DF9D-A2C0-6B4C-B49C-F70F0F64B921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F26E5C1-1A9B-0541-8049-8677B84B39A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{44193B54-3E61-4F42-A2F5-334423EA9A74}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -445,18 +445,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +469,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E7E890-1B38-6B42-99DB-B4356D4A93F6}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,50 +817,50 @@
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -880,7 +880,7 @@
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>1E-3</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -889,7 +889,7 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>1E-3</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -898,7 +898,7 @@
       <c r="J8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -1100,19 +1100,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1132,7 +1132,7 @@
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>1E-3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1141,7 +1141,7 @@
       <c r="F20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="10">
         <v>1E-3</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1150,7 +1150,7 @@
       <c r="J20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1228,7 +1228,7 @@
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1237,7 +1237,7 @@
       <c r="J23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1390,7 +1390,7 @@
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="10">
         <v>1E-3</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1399,7 +1399,7 @@
       <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="10">
         <v>1E-3</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1408,7 +1408,7 @@
       <c r="J32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>0.2</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1486,7 +1486,7 @@
       <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="8">
         <v>0.2</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -1495,9 +1495,7 @@
       <c r="J35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="11">
-        <v>0.2</v>
-      </c>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1616,19 +1614,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -1648,7 +1646,7 @@
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="10">
         <v>1E-3</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1657,7 +1655,7 @@
       <c r="F44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="10">
         <v>1E-3</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -1666,7 +1664,7 @@
       <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -1735,7 +1733,7 @@
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>0.2</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1744,7 +1742,7 @@
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="8">
         <v>0.2</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -1753,9 +1751,7 @@
       <c r="J47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="11">
-        <v>0.2</v>
-      </c>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1885,34 +1881,34 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
     </row>
     <row r="55" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -1929,7 +1925,7 @@
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="10">
         <v>1E-3</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -1938,7 +1934,7 @@
       <c r="F58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -1949,14 +1945,14 @@
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="9"/>
       <c r="E59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="12"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -1965,14 +1961,14 @@
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="9"/>
       <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="12"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -2071,34 +2067,34 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
     </row>
     <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
@@ -2115,7 +2111,7 @@
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="10">
         <v>1E-3</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2124,7 +2120,7 @@
       <c r="F72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -2135,7 +2131,7 @@
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="12">
         <v>135</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2144,7 +2140,7 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="12">
         <v>54</v>
       </c>
     </row>
@@ -2184,7 +2180,7 @@
       <c r="F75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="8">
         <v>2.5</v>
       </c>
     </row>
@@ -2269,19 +2265,19 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
@@ -2296,12 +2292,12 @@
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="10">
         <v>1E-3</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="13"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -2310,12 +2306,12 @@
       <c r="B85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="12">
         <v>16</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="15"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -2343,7 +2339,7 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="11"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -2402,19 +2398,19 @@
       <c r="G91" s="1"/>
     </row>
     <row r="93" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -2434,7 +2430,7 @@
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="10">
         <v>1E-3</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -2443,7 +2439,7 @@
       <c r="F96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="10">
         <v>1E-3</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -2452,7 +2448,7 @@
       <c r="J96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -2521,7 +2517,7 @@
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="8">
         <v>0.4</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -2530,7 +2526,7 @@
       <c r="F99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="8">
         <v>0.4</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -2539,7 +2535,7 @@
       <c r="J99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -2660,19 +2656,19 @@
       </c>
     </row>
     <row r="105" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
@@ -2692,7 +2688,7 @@
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="10">
         <v>1E-3</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -2701,7 +2697,7 @@
       <c r="F108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="13">
+      <c r="G108" s="10">
         <v>1E-3</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -2710,7 +2706,7 @@
       <c r="J108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K108" s="13">
+      <c r="K108" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -2779,7 +2775,7 @@
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="8">
         <v>0.4</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -2788,7 +2784,7 @@
       <c r="F111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="8">
         <v>0.4</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -2797,7 +2793,7 @@
       <c r="J111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K111" s="11">
+      <c r="K111" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -2918,34 +2914,34 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
     </row>
     <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -2954,7 +2950,7 @@
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -2998,7 +2994,7 @@
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="8">
         <v>3</v>
       </c>
     </row>
@@ -3047,49 +3043,49 @@
       </c>
     </row>
     <row r="130" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-    </row>
-    <row r="131" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-    </row>
-    <row r="132" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="21" t="s">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+    </row>
+    <row r="132" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="21" t="s">
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
@@ -3098,7 +3094,7 @@
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="10">
         <v>1E-3</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -3107,7 +3103,7 @@
       <c r="F133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G133" s="13">
+      <c r="G133" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -3198,7 +3194,7 @@
       <c r="B138" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C138" s="22">
+      <c r="C138" s="19">
         <v>0.68</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -3207,7 +3203,7 @@
       <c r="F138" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G138" s="22">
+      <c r="G138" s="19">
         <v>0.68</v>
       </c>
     </row>
@@ -3372,16 +3368,16 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="E148" s="21" t="s">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="E148" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -3390,7 +3386,7 @@
       <c r="B149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="10">
         <v>1E-3</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -3399,7 +3395,7 @@
       <c r="F149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="13">
+      <c r="G149" s="10">
         <v>1E-3</v>
       </c>
     </row>
@@ -3490,7 +3486,7 @@
       <c r="B154" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C154" s="22">
+      <c r="C154" s="19">
         <v>0.68</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -3499,7 +3495,7 @@
       <c r="F154" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G154" s="22">
+      <c r="G154" s="19">
         <v>0.68</v>
       </c>
     </row>
@@ -3665,6 +3661,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A41:K41"/>
     <mergeCell ref="A119:K119"/>
     <mergeCell ref="A130:K130"/>
     <mergeCell ref="A67:K67"/>
@@ -3673,13 +3676,6 @@
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="A105:K105"/>
     <mergeCell ref="A117:K117"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A41:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/University spaces data.xlsx
+++ b/University spaces data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mythriambatipudi/Documents/ES 96/RiskAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F26E5C1-1A9B-0541-8049-8677B84B39A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D4A86-E058-6E40-97A7-A12AA31A5696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{44193B54-3E61-4F42-A2F5-334423EA9A74}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{44193B54-3E61-4F42-A2F5-334423EA9A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Low Infection Risk (LIR) Case" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="73">
   <si>
     <t>(Cases/Total Pop)</t>
   </si>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E7E890-1B38-6B42-99DB-B4356D4A93F6}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3683,12 +3683,2885 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799AEE7-C51C-A147-B3CF-AE1EE0086CBD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="C149" activeCellId="3" sqref="C133 G133 G149 C149"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>492</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6">
+        <v>131</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3879054.0249999999</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <v>594653.97959999996</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>18122781.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>180</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>76455.485799999995</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5">
+        <v>210677.3028</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="5">
+        <v>203881.29550000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>100</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1">
+        <v>180</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6">
+        <v>250</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>200</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
+        <v>849505.03200000001</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="5">
+        <v>339802.01280000003</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="5">
+        <v>9920595.0140000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>100</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>252</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1">
+        <v>252</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6">
+        <v>250</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="6">
+        <v>200</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5">
+        <v>849505.03200000001</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="5">
+        <v>339802.01280000003</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="5">
+        <v>9920595.0140000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>100</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>100</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1">
+        <v>252</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="1">
+        <v>252</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="E59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="E60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>100</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="1">
+        <v>180</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+    </row>
+    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="12">
+        <v>135</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1410178.3529999999</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="5">
+        <v>366986.17379999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>100</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="1">
+        <v>180</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="12">
+        <v>16</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5">
+        <v>159027.342</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>100</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="1">
+        <v>180</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="93" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="6">
+        <v>675</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="6">
+        <v>320</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K97" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5">
+        <v>22029789.239999998</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="5">
+        <v>11030114.92</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" s="5">
+        <v>12024743.73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>100</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="1">
+        <v>100</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="1">
+        <v>252</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="1">
+        <v>252</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="6">
+        <v>675</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="6">
+        <v>320</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K109" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="5">
+        <v>22029789.239999998</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="5">
+        <v>11030114.92</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="5">
+        <v>12024743.73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K111" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>100</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1">
+        <v>100</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="1">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="1">
+        <v>10</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="1">
+        <v>252</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="1">
+        <v>252</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A117" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+    </row>
+    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A119" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="5">
+        <v>73623.769440000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+    </row>
+    <row r="132" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>84950.54</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136">
+        <v>84950.54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G138" s="19">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142">
+        <v>40</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G142">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143">
+        <v>80</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G143">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146" s="1">
+        <v>12</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G146" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="E148" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>56633.69</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152">
+        <v>56633.69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C154" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G154" s="19">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>100</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158">
+        <v>40</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159">
+        <v>80</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G159">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162" s="1">
+        <v>12</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G162" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A117:K117"/>
+    <mergeCell ref="A119:K119"/>
+    <mergeCell ref="A130:K130"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A53:K53"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/University spaces data.xlsx
+++ b/University spaces data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mythriambatipudi/Documents/ES 96/RiskAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D4A86-E058-6E40-97A7-A12AA31A5696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C07B8D-59F6-9149-BC2F-A9B6D90D2375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{44193B54-3E61-4F42-A2F5-334423EA9A74}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="2" xr2:uid="{44193B54-3E61-4F42-A2F5-334423EA9A74}"/>
   </bookViews>
   <sheets>
     <sheet name="Low Infection Risk (LIR) Case" sheetId="1" r:id="rId1"/>
     <sheet name="High Infection Risk (HIR) Case" sheetId="2" r:id="rId2"/>
+    <sheet name="Contacts for Private Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="88">
   <si>
     <t>(Cases/Total Pop)</t>
   </si>
@@ -134,9 +135,6 @@
   </si>
   <si>
     <t>Time spent in space each visit in min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Note fields marked in gray are private 3rd party data that cannot legally be distributed. Access to this data may be granted by the contacts listed in the Data Availability Statement. </t>
   </si>
   <si>
     <t>Stanford University</t>
@@ -266,6 +264,54 @@
   <si>
     <t>Small Bathroom, High Ventilation</t>
   </si>
+  <si>
+    <t>* Note fields marked in gray are private 3rd party data that cannot legally be distributed. Access to this data may be granted by the contacts listed in the "Contacts for Private Data" tab of this spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University </t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Space(s)</t>
+  </si>
+  <si>
+    <t>Harvard - Cambridge</t>
+  </si>
+  <si>
+    <t>Science Center Lecture Halls</t>
+  </si>
+  <si>
+    <t>Mark J. Pimentel</t>
+  </si>
+  <si>
+    <t>Contact information for individuals who provided access to the private third-party data indicated by grayed-out fields in the other two tabs of this spreadsheet</t>
+  </si>
+  <si>
+    <t>pimentel@fas.harvard.edu</t>
+  </si>
+  <si>
+    <t>Raymond Traietti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traeitti@fas.harvard.edu </t>
+  </si>
+  <si>
+    <t>Harvard - Allston</t>
+  </si>
+  <si>
+    <t>SEC Lecture Halls</t>
+  </si>
+  <si>
+    <t>Donald Claflin</t>
+  </si>
+  <si>
+    <t>dclaflin@seas.harvard.edu</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +404,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -431,10 +493,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,17 +532,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E7E890-1B38-6B42-99DB-B4356D4A93F6}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,7 +898,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -833,34 +912,34 @@
       <c r="K1" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1100,19 +1179,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1358,19 +1437,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1614,19 +1693,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -1881,34 +1960,34 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+      <c r="A53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="55" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -2067,41 +2146,41 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="A67" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -2265,23 +2344,23 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -2398,29 +2477,29 @@
       <c r="G91" s="1"/>
     </row>
     <row r="93" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -2656,29 +2735,29 @@
       </c>
     </row>
     <row r="105" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -2914,34 +2993,34 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A119" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-    </row>
-    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -2959,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C121" s="1">
         <v>2</v>
@@ -2967,10 +3046,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -3022,10 +3101,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" s="1">
         <v>18</v>
@@ -3033,29 +3112,29 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A130" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
+      <c r="A130" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
     </row>
     <row r="131" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16"/>
@@ -3072,13 +3151,13 @@
     </row>
     <row r="132" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
@@ -3109,19 +3188,19 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -3129,19 +3208,19 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -3192,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C138" s="19">
         <v>0.68</v>
@@ -3201,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G138" s="19">
         <v>0.68</v>
@@ -3229,19 +3308,19 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140">
         <v>5</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G140">
         <v>5</v>
@@ -3249,19 +3328,19 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141">
         <v>20</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G141">
         <v>20</v>
@@ -3269,19 +3348,19 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142">
         <v>40</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G142">
         <v>40</v>
@@ -3289,19 +3368,19 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C143">
         <v>80</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G143">
         <v>80</v>
@@ -3309,19 +3388,19 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C144">
         <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -3329,19 +3408,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -3349,19 +3428,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C146" s="1">
         <v>12</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G146" s="1">
         <v>12</v>
@@ -3369,12 +3448,12 @@
     </row>
     <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
       <c r="E148" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -3401,19 +3480,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -3421,19 +3500,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -3484,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C154" s="19">
         <v>0.68</v>
@@ -3493,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G154" s="19">
         <v>0.68</v>
@@ -3521,19 +3600,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C156">
         <v>5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -3541,19 +3620,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C157">
         <v>20</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G157">
         <v>20</v>
@@ -3561,19 +3640,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C158">
         <v>40</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G158">
         <v>40</v>
@@ -3581,19 +3660,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C159">
         <v>80</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G159">
         <v>80</v>
@@ -3601,19 +3680,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -3621,19 +3700,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -3641,19 +3720,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C162" s="1">
         <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G162" s="1">
         <v>12</v>
@@ -3661,13 +3740,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A41:K41"/>
     <mergeCell ref="A119:K119"/>
     <mergeCell ref="A130:K130"/>
     <mergeCell ref="A67:K67"/>
@@ -3676,6 +3748,13 @@
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="A105:K105"/>
     <mergeCell ref="A117:K117"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A41:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3685,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799AEE7-C51C-A147-B3CF-AE1EE0086CBD}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="C149" activeCellId="3" sqref="C133 G133 G149 C149"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3704,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3718,34 +3797,34 @@
       <c r="K1" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -3985,19 +4064,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -4243,19 +4322,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -4499,19 +4578,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -4766,34 +4845,34 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+      <c r="A53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="55" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -4952,41 +5031,41 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="A67" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -5150,23 +5229,23 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -5283,29 +5362,29 @@
       <c r="G91" s="1"/>
     </row>
     <row r="93" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -5541,29 +5620,29 @@
       </c>
     </row>
     <row r="105" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -5799,34 +5878,34 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="26" x14ac:dyDescent="0.2">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A119" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-    </row>
-    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -5844,7 +5923,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C121" s="1">
         <v>2</v>
@@ -5852,10 +5931,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -5907,10 +5986,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" s="1">
         <v>18</v>
@@ -5918,29 +5997,29 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A130" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
+      <c r="A130" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
     </row>
     <row r="131" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16"/>
@@ -5957,13 +6036,13 @@
     </row>
     <row r="132" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
@@ -5994,19 +6073,19 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -6014,19 +6093,19 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -6077,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C138" s="19">
         <v>0.68</v>
@@ -6086,7 +6165,7 @@
         <v>12</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G138" s="19">
         <v>0.68</v>
@@ -6114,19 +6193,19 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140">
         <v>5</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G140">
         <v>5</v>
@@ -6134,19 +6213,19 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141">
         <v>20</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G141">
         <v>20</v>
@@ -6154,19 +6233,19 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142">
         <v>40</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G142">
         <v>40</v>
@@ -6174,19 +6253,19 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C143">
         <v>80</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G143">
         <v>80</v>
@@ -6194,19 +6273,19 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C144">
         <v>4</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -6214,19 +6293,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -6234,19 +6313,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C146" s="1">
         <v>12</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G146" s="1">
         <v>12</v>
@@ -6254,12 +6333,12 @@
     </row>
     <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
       <c r="E148" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -6286,19 +6365,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -6306,19 +6385,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -6369,7 +6448,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C154" s="19">
         <v>0.68</v>
@@ -6378,7 +6457,7 @@
         <v>12</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G154" s="19">
         <v>0.68</v>
@@ -6406,19 +6485,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C156">
         <v>5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -6426,19 +6505,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C157">
         <v>20</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G157">
         <v>20</v>
@@ -6446,19 +6525,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C158">
         <v>40</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G158">
         <v>40</v>
@@ -6466,19 +6545,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C159">
         <v>80</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G159">
         <v>80</v>
@@ -6486,19 +6565,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -6506,19 +6585,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -6526,19 +6605,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C162" s="1">
         <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G162" s="1">
         <v>12</v>
@@ -6546,6 +6625,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A41:K41"/>
     <mergeCell ref="A117:K117"/>
     <mergeCell ref="A119:K119"/>
     <mergeCell ref="A130:K130"/>
@@ -6555,13 +6640,118 @@
     <mergeCell ref="A81:K81"/>
     <mergeCell ref="A93:K93"/>
     <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A53:K53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0504218C-D233-FE40-B6A1-D053F58CF4DF}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="mailto:pimentel@fas.harvard.edu" xr:uid="{5EBDB6AD-D1FD-7941-A419-F342B1E38CFE}"/>
+    <hyperlink ref="D5" r:id="rId2" display="mailto:traeitti@fas.harvard.edu" xr:uid="{3F756FD5-A357-224D-BC21-7ADD73FA4812}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{F195496E-6FAE-374C-A546-EFD9513F485A}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{A65C1FA1-C823-5044-B9E0-E8D168153284}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>